--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006266</t>
+          <t>005794</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢智能领先混合A</t>
+          <t>银华心怡灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006269</t>
+          <t>002168</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢智能领先混合C</t>
+          <t>嘉实智能汽车股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>47.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0906</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>46.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>006266</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>永赢智能领先混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>10.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001014</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融融安灵活配置混合</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002168</t>
+          <t>005250</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实智能汽车股票</t>
+          <t>银华估值优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003132</t>
+          <t>006269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦新回报灵活配置混合</t>
+          <t>永赢智能领先混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005331</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>益民优势安享灵活配置混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>003132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>德邦新回报灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>005331</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>益民优势安享灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005250</t>
+          <t>005848</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华估值优势混合</t>
+          <t>银华裕利混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>001014</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>中融融安灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005848</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华裕利混合</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005368</t>
+          <t>005794</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合A</t>
+          <t>银华心怡灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011127</t>
+          <t>005368</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国清洁能源产业灵活配置混合C</t>
+          <t>富国清洁能源产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005250</t>
+          <t>010460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华估值优势混合</t>
+          <t>兴业研究精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>005250</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>银华估值优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010460</t>
+          <t>005848</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业研究精选混合</t>
+          <t>银华裕利混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005848</t>
+          <t>011127</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华裕利混合</t>
+          <t>富国清洁能源产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,2492 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4624</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2523</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1915</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1800</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1317</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0615</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0456</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3804,4 +3805,3252 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5837</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9888</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9677</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7670</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7490</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3828</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2674</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1118</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0207</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9616</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9424</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8993</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8713</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6552</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5685</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4688</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4426</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7053,4 +7054,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7062,7 +7063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7073,17 +7074,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7093,14 +7114,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D2" t="n">
-        <v>77.40000000000001</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7109,14 +7152,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.71</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7125,14 +7190,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.17</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7141,13 +7228,2885 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7348</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2654</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.2384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6758</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9581</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7534</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7405</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4028</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0827</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9758</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8849</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8679</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7843</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7544</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7518</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6688</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6237</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5440</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4848</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4719</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10005,7 +10006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10016,17 +10017,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10036,14 +10057,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>79.78</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -10052,14 +10095,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>77.40000000000001</v>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>185.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -10068,14 +10133,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.71</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -10084,14 +10171,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.17</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.3518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -10100,13 +10209,4309 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5887</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9592</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8986</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7305</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5886</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5886</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5849</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5486</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5303</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4293</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1858</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0507</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0335</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8614</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8414</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7968</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7964</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7903</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7588</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7097</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5696</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>86.27</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>79.78</v>
+        <v>86.27</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>77.40000000000001</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>41.71</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>3.17</v>
+        <v>41.71</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>8.32</v>
       </c>
     </row>
@@ -583,6 +600,3632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9362</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7433</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4250</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3642</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2990</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9916</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8437</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5731</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4893</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015756</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4970,7 +8613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7912,7 +11555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11160,7 +14803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13648,7 +17291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13932,7 +17575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688116-天奈科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>39.98</v>
+        <v>15.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>86.27</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>79.78</v>
+        <v>86.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>77.40000000000001</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
-        <v>41.71</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>3.17</v>
+        <v>41.71</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8.32</v>
       </c>
     </row>
@@ -600,6 +617,1884 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3209</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8701</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8653</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5383</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011803</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011804</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺宁景6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015756</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>017485</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4225,7 +6120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8613,7 +10508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11555,7 +13450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14803,7 +16698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17291,7 +19186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17575,7 +19470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
